--- a/spliced/struggle/2023-03-25_18-15-04/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-04/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.4104371666908285</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-2.215225696563721</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-8.597748756408691</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.63666820526123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
